--- a/data/trans_bre/P32-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.510192345122011</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.629342896699735</v>
+        <v>-2.629342896699737</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4939946994608551</v>
@@ -649,7 +649,7 @@
         <v>-0.2509482575120413</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4282178774188926</v>
+        <v>-0.4282178774188928</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.905901404479045</v>
+        <v>-2.540656887430198</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.184116374911325</v>
+        <v>-6.182137790406633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.460883497494781</v>
+        <v>-5.709839215045298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.342010601725981</v>
+        <v>-6.545506673327463</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.8859507662347718</v>
+        <v>-0.8793547386746006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.7432019899182229</v>
+        <v>-0.7597239347618253</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7895201556601446</v>
+        <v>-0.8047890261022368</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.637301895556478</v>
+        <v>1.978974141995269</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.348237341749462</v>
+        <v>3.155232626602634</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.870874072617892</v>
+        <v>3.473810432425147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.57889238406738</v>
+        <v>1.158394558575113</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1.121438133257142</v>
+        <v>1.200637784216015</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.167434538189196</v>
+        <v>0.8130371241164809</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4346197272895068</v>
+        <v>0.3649733113606991</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>-0.8531813681015576</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.407185775064986</v>
+        <v>0.4071857750649867</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.289676412574799</v>
@@ -745,7 +745,7 @@
         <v>-0.1816345713569784</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1021763734651836</v>
+        <v>0.1021763734651838</v>
       </c>
     </row>
     <row r="8">
@@ -756,26 +756,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.795305574472328</v>
+        <v>-2.880869147367001</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.09045412367945</v>
+        <v>-6.881620561334071</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.932373161085824</v>
+        <v>-4.397387541338232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.312444452742476</v>
+        <v>-3.540313289665603</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.8776739125471545</v>
+        <v>-0.8763372644684092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.769249805989323</v>
+        <v>-0.7055881903208572</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6181236111381879</v>
+        <v>-0.6222465661073202</v>
       </c>
     </row>
     <row r="9">
@@ -786,26 +786,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.170552802188906</v>
+        <v>2.054696066956671</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.46758284318454</v>
+        <v>3.313430545066583</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.932309721564234</v>
+        <v>3.50639717509335</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.598598818485638</v>
+        <v>4.259559163187367</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.767747075074238</v>
+        <v>1.349441492261975</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.080380096649485</v>
+        <v>1.524748445926844</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.214580024382359</v>
+        <v>1.966319262527219</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +829,7 @@
         <v>2.128289581946825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.210319826381841</v>
+        <v>-5.210319826381842</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4365563013490708</v>
@@ -841,7 +841,7 @@
         <v>0.5960424870154171</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.7506166225750325</v>
+        <v>-0.7506166225750326</v>
       </c>
     </row>
     <row r="11">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.099804030065141</v>
+        <v>-4.110903952391816</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.672060629744461</v>
+        <v>-6.773677556831966</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.959681521770922</v>
+        <v>-3.167895338528764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.464858420011058</v>
+        <v>-9.525912541372989</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>-1</v>
@@ -870,7 +870,7 @@
         <v>-1</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-1</v>
+        <v>-0.6784523219521881</v>
       </c>
       <c r="J11" s="6" t="n">
         <v>-1</v>
@@ -884,28 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.269094536732339</v>
+        <v>5.680475646182953</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.159675208089259</v>
+        <v>1.697919889593556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.7276403839056</v>
+        <v>10.69763974211414</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6968855880975605</v>
+        <v>0.1506611917284347</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.172838822500248</v>
+        <v>3.213871624481559</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8339564449915954</v>
+        <v>0.5807717317738293</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.819226896928826</v>
+        <v>4.411766930094465</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7240249316819763</v>
+        <v>0.6207311718420402</v>
       </c>
     </row>
     <row r="13">
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.487216105944941</v>
+        <v>-3.718052601634353</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.814610550629819</v>
+        <v>-8.633551342210817</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.134215109746249</v>
+        <v>-5.311962131564235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.252393186331334</v>
+        <v>-6.590471845257471</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.9506497108763292</v>
+        <v>-0.9566650717570343</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8226188434199285</v>
+        <v>-0.8291206209975173</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8708413311830513</v>
+        <v>-0.881557342298516</v>
       </c>
     </row>
     <row r="15">
@@ -984,28 +984,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.42062055511978</v>
+        <v>0.9625220659220313</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-3.54838721165382</v>
+        <v>-3.583342067460037</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.2302886634628384</v>
+        <v>-0.3001335110049057</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4513088465134815</v>
+        <v>0.5887382348530893</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9502197644242558</v>
+        <v>0.5899436370053672</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4952620559506963</v>
+        <v>-0.4999073616098164</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.002371423795372279</v>
+        <v>-0.04191444782951022</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3923430818611227</v>
+        <v>0.3594634227816373</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1029,7 @@
         <v>-4.407588434235793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.745069883467437</v>
+        <v>-5.745069883467438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5646760711914295</v>
@@ -1052,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.454089835346216</v>
+        <v>-1.914410932005323</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.821220091890419</v>
+        <v>-6.051278860938161</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.709491363902473</v>
+        <v>-7.719981359627037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.00304418606044</v>
+        <v>-9.973137015455201</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6869080268515926</v>
+        <v>-0.6005680064993011</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8885925868262147</v>
+        <v>-0.9025155389814874</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8519036814983287</v>
+        <v>-0.8480188592551934</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.301721607344017</v>
+        <v>6.522186463740072</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7878767522575517</v>
+        <v>0.5718753592022103</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.619817733093652</v>
+        <v>-1.589810339575534</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.5486476062315</v>
+        <v>-1.753287754357065</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5.484867168259763</v>
+        <v>9.439732855409346</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3507290107973802</v>
+        <v>0.2140994484182139</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.15770406583609</v>
+        <v>-0.1869286564797679</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1415686045880426</v>
+        <v>-0.1328962079797829</v>
       </c>
     </row>
     <row r="19">
@@ -1129,7 +1129,7 @@
         <v>-4.146638027267898</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-7.494084700466937</v>
+        <v>-7.494084700466935</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.8906550099589781</v>
@@ -1152,23 +1152,25 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-7.757218133842625</v>
+        <v>-7.98136903357056</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-20.05061297895272</v>
+        <v>-19.90525525571842</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-10.1328409348941</v>
+        <v>-10.09683177705847</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-24.02607259119235</v>
-      </c>
-      <c r="G20" s="6" t="inlineStr"/>
+        <v>-21.76853665145397</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H20" s="6" t="n">
-        <v>-0.9715347910227056</v>
+        <v>-0.973825708868311</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8134449632036043</v>
+        <v>-0.7931793304622102</v>
       </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
@@ -1180,23 +1182,25 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.8183052416120254</v>
+        <v>-0.8896542603278849</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-7.664951586173076</v>
+        <v>-7.174754674657959</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9654583070907413</v>
+        <v>0.288154717461455</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2111602690199174</v>
-      </c>
-      <c r="G21" s="6" t="inlineStr"/>
+        <v>1.388581620623655</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.5065706123576134</v>
+      </c>
       <c r="H21" s="6" t="n">
-        <v>-0.6972640964794259</v>
+        <v>-0.7018350333502833</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2437042245246202</v>
+        <v>0.181294550341231</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
@@ -1244,28 +1248,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.309296333731801</v>
+        <v>-2.344437850854562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.15215204654984</v>
+        <v>-6.090318307720583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.376785906359015</v>
+        <v>-3.430554610617356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.186103309929088</v>
+        <v>-5.300846478665261</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7381140026054323</v>
+        <v>-0.7419874945875521</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.8083371303027513</v>
+        <v>-0.8146464733637301</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5725410628960197</v>
+        <v>-0.5742686852678398</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.714954098697044</v>
+        <v>-0.7072747157174817</v>
       </c>
     </row>
     <row r="24">
@@ -1276,28 +1280,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0985058281015297</v>
+        <v>-0.1549797614404081</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.077243955904216</v>
+        <v>-3.028112969821492</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.4909377832775869</v>
+        <v>-0.2414590469725749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.663770982487857</v>
+        <v>-1.770394343550852</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06997271287364426</v>
+        <v>-0.0470820214753932</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.4933642795445763</v>
+        <v>-0.4966926016131914</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1123146273419768</v>
+        <v>-0.05078560386925093</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.2962249618301964</v>
+        <v>-0.2791171782916722</v>
       </c>
     </row>
     <row r="25">
